--- a/series_sc/sexos.xlsx
+++ b/series_sc/sexos.xlsx
@@ -37,7 +37,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Sin Información</t>
+    <t>Sin Informacion</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
